--- a/Data/SuspectedDRDs_OctDec2022.xlsx
+++ b/Data/SuspectedDRDs_OctDec2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u449921\Documents\SuspectedDrugDeaths\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/joshua_bird_gov_scot/Documents/Suspected Drug Deaths/Gitrepo/suspected_drug_deaths/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C66A54-01BB-47F5-AD31-C5B2413B1720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{62C66A54-01BB-47F5-AD31-C5B2413B1720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55732948-E764-479D-A613-0718DEDFE7D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1935" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A - Police Division" sheetId="1" r:id="rId1"/>
@@ -332,75 +332,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -416,34 +410,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -728,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -748,48 +741,48 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="33">
         <v>2017</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="37">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34">
         <v>2018</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="33">
         <v>2019</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="36">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="33">
         <v>2020</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="36">
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="33">
         <v>2021</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="36">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="33">
         <v>2022</v>
       </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="38"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
     </row>
     <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1151,7 @@
       <c r="U8" s="13">
         <v>11</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="31">
         <v>31</v>
       </c>
       <c r="W8" s="12">
@@ -1963,7 +1956,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
-      <c r="U19" s="20"/>
+      <c r="U19" s="19"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B20" s="19"/>
@@ -1984,10 +1977,10 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
-      <c r="U20" s="20"/>
+      <c r="U20" s="19"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="19"/>
@@ -2008,13 +2001,13 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
-      <c r="U21" s="20"/>
+      <c r="U21" s="19"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -2032,34 +2025,34 @@
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
-      <c r="U22" s="20"/>
+      <c r="U22" s="19"/>
     </row>
     <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="U23" s="20"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="U23" s="19"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="19"/>
@@ -2080,10 +2073,10 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
-      <c r="U24" s="20"/>
+      <c r="U24" s="19"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="19"/>
@@ -2104,15 +2097,15 @@
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
-      <c r="U25" s="20"/>
+      <c r="U25" s="19"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
+      <c r="A29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2154,48 +2147,48 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="33">
         <v>2017</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="36">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="33">
         <v>2018</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="37">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="34">
         <v>2019</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="36">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="33">
         <v>2020</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="36">
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="33">
         <v>2021</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="36">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="33">
         <v>2022</v>
       </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="38"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
     </row>
     <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2250,10 +2243,10 @@
       <c r="S4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="29" t="s">
         <v>4</v>
       </c>
       <c r="V4" s="15" t="s">
@@ -2262,15 +2255,15 @@
       <c r="W4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="Y4" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="8">
@@ -2347,7 +2340,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="11">
@@ -2424,7 +2417,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="11">
@@ -2501,7 +2494,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="11">
@@ -2578,7 +2571,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="11">
@@ -2655,7 +2648,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="15">
@@ -2724,7 +2717,7 @@
       <c r="W10" s="16">
         <v>277</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10" s="32">
         <v>235</v>
       </c>
       <c r="Y10" s="17">
@@ -2735,27 +2728,27 @@
       <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="19"/>
@@ -2778,10 +2771,10 @@
       <c r="S13" s="19"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -2801,30 +2794,30 @@
       <c r="S14" s="19"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="19"/>
@@ -2847,7 +2840,7 @@
       <c r="S16" s="19"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2869,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2889,48 +2882,48 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="33">
         <v>2017</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="36">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="33">
         <v>2018</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="37">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="34">
         <v>2019</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="36">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="33">
         <v>2020</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="36">
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="33">
         <v>2021</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="36">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="33">
         <v>2022</v>
       </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="38"/>
-    </row>
-    <row r="4" spans="1:25" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+    </row>
+    <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2985,10 +2978,10 @@
       <c r="S4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="29" t="s">
         <v>4</v>
       </c>
       <c r="V4" s="15" t="s">
@@ -2997,15 +2990,15 @@
       <c r="W4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="Y4" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="8">
@@ -3082,7 +3075,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="11">
@@ -3159,7 +3152,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="15">
@@ -3228,7 +3221,7 @@
       <c r="W7" s="16">
         <v>277</v>
       </c>
-      <c r="X7" s="35">
+      <c r="X7" s="32">
         <v>235</v>
       </c>
       <c r="Y7" s="17">
@@ -3239,10 +3232,9 @@
       <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="U8" s="32"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="19"/>
@@ -3265,10 +3257,10 @@
       <c r="S10" s="19"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -3288,30 +3280,30 @@
       <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="19"/>
@@ -3334,7 +3326,7 @@
       <c r="S13" s="19"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
